--- a/biology/Botanique/Gentiane_des_Alpes/Gentiane_des_Alpes.xlsx
+++ b/biology/Botanique/Gentiane_des_Alpes/Gentiane_des_Alpes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gentiana alpina
 La Gentiane des Alpes aussi appelée Gentiane alpine (Gentiane alpina) est une espèce de plantes herbacées vivaces de la famille des Gentianaceae. 
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Taille : au maximum 7 cm de haut, elle ne possède pas de tige alors qu'une autre espèce occupant les mêmes milieux, la gentiane acaule en possède une parfois très petite. Les feuilles sont très courtes, assez larges et relativement épaisses. La fleur mesure de 20 à 35 mm de long. Floraison de juin à aout.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se développe dans les pelouses alpines et subalpines sur des sols acides à des altitudes variant de 1 500 à 2 600 m.
 </t>
